--- a/shift_manager/static/staff_all.xlsx
+++ b/shift_manager/static/staff_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\shift_app\shift_manager\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297BB60D-875E-477F-B6D0-ADD94B9E691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89637CAB-7CCB-4CA9-8CAD-4EF9EED6C41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81100D59-C01A-4570-8E3B-E4BDA7D3DC9D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>職員番号</t>
     <rPh sb="0" eb="2">
@@ -67,6 +67,16 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂下 大知</t>
+    <rPh sb="0" eb="2">
+      <t>サカシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,6 +262,8 @@
           <cell r="G1" t="str">
             <v>スタッフ</v>
           </cell>
+          <cell r="H1"/>
+          <cell r="I1"/>
         </row>
         <row r="2">
           <cell r="G2">
@@ -19924,10 +19936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0945D4-B085-40E6-AE86-27FBED72B490}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -20964,6 +20976,29 @@
         <v>別所</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>145410</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <f t="shared" ref="D41" si="3">IFERROR(LEFT(C41,FIND(" ",C41)-1),"")</f>
+        <v>坂下</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f t="shared" ref="E41" si="4">IFERROR(RIGHT(C41,LEN(C41)-FIND(" ",C41)),"")</f>
+        <v>大知</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f t="shared" ref="F41" si="5">IF(COUNTIF(D:D,D41)=1,D41,D41&amp;LEFT(E41,1))</f>
+        <v>坂下</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
